--- a/OneDay_김밥나라/database/김밥나라_테이블명세.xlsx
+++ b/OneDay_김밥나라/database/김밥나라_테이블명세.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28548" windowHeight="11832" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17172" windowHeight="8472"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="상품정보 테이블" sheetId="1" r:id="rId4"/>
@@ -22,190 +22,190 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <x:si>
+    <x:t>FK 테이블 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변한글문자열(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAR(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변한글문자열(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보 테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tbl_product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 주문정보 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정문자열(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tbl_orders</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AUTO INCREMENT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가변한글문자열(255)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품에대한 정보를 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR(255)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRIMARRY KEY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 형식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오라클형식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 설명</x:t>
+  </x:si>
+  <x:si>
     <x:t>CHAR(5)</x:t>
   </x:si>
   <x:si>
-    <x:t>AUTO INCREMENT</x:t>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o_count</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_rem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK 열이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>system</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매금액</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o_pcode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o_table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고정문자열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o_seq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>page 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>p_code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>o_total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>page 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>seq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오종관</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정수형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
   </x:si>
   <x:si>
     <x:t>작성일</x:t>
   </x:si>
   <x:si>
-    <x:t>오종관</x:t>
+    <x:t>작성자</x:t>
   </x:si>
   <x:si>
     <x:t>비고</x:t>
   </x:si>
   <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>seq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단가</x:t>
-  </x:si>
-  <x:si>
     <x:t>기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정수형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o_count</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o_pcode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오라클형식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column</x:t>
-  </x:si>
-  <x:si>
-    <x:t>system</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 형식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK 열이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매금액</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_rem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>page 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o_total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o_table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>p_price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정문자열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세부설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>page 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o_seq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(255)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품에대한 정보를 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRIMARRY KEY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변한글문자열(255)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보 테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고정문자열(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변한글문자열(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tbl_product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAR(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tbl_orders</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가변한글문자열(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK 테이블 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 주문정보 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>o_price</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1593,8 +1593,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B2:L21"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F6" activeCellId="0" sqref="F6:F6"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E6" activeCellId="0" sqref="E6:E9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2246,19 +2246,19 @@
   <x:sheetData>
     <x:row r="2" spans="2:12" customHeight="1">
       <x:c r="B2" s="13" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E2" s="23"/>
       <x:c r="F2" s="23"/>
       <x:c r="G2" s="23"/>
       <x:c r="H2" s="25" t="s">
-        <x:v>2</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I2" s="25"/>
       <x:c r="J2" s="27">
@@ -2266,36 +2266,36 @@
       </x:c>
       <x:c r="K2" s="28"/>
       <x:c r="L2" s="20" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:12" customHeight="1">
       <x:c r="B3" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C3" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="24"/>
       <x:c r="E3" s="24"/>
       <x:c r="F3" s="24"/>
       <x:c r="G3" s="24"/>
       <x:c r="H3" s="26" t="s">
-        <x:v>5</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I3" s="26"/>
       <x:c r="J3" s="29" t="s">
-        <x:v>3</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K3" s="30"/>
       <x:c r="L3" s="19"/>
     </x:row>
     <x:row r="4" spans="2:12" customHeight="1">
       <x:c r="B4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C4" s="21" t="s">
-        <x:v>46</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="21"/>
       <x:c r="E4" s="21"/>
@@ -2309,37 +2309,37 @@
     </x:row>
     <x:row r="5" spans="2:12" customHeight="1">
       <x:c r="B5" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F5" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" customHeight="1">
@@ -2347,20 +2347,20 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G6" s="3"/>
       <x:c r="H6" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="3"/>
@@ -2372,19 +2372,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>53</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F7" s="12" t="s">
-        <x:v>60</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G7" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H7" s="12"/>
       <x:c r="I7" s="12"/>
@@ -2397,19 +2397,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>10</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F8" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G8" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H8" s="12"/>
       <x:c r="I8" s="12"/>
@@ -2422,16 +2422,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="12" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>48</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F9" s="12" t="s">
-        <x:v>45</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="12"/>
       <x:c r="H9" s="12"/>
@@ -2639,8 +2639,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="B2:L21"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="M9" activeCellId="0" sqref="M9:M9"/>
+    <x:sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="J9" activeCellId="0" sqref="J9:J9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3292,19 +3292,19 @@
   <x:sheetData>
     <x:row r="2" spans="2:12" customHeight="1">
       <x:c r="B2" s="13" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D2" s="23" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E2" s="23"/>
       <x:c r="F2" s="23"/>
       <x:c r="G2" s="23"/>
       <x:c r="H2" s="25" t="s">
-        <x:v>2</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I2" s="25"/>
       <x:c r="J2" s="27">
@@ -3312,36 +3312,36 @@
       </x:c>
       <x:c r="K2" s="28"/>
       <x:c r="L2" s="20" t="s">
-        <x:v>43</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:12" customHeight="1">
       <x:c r="B3" s="14" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C3" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="24"/>
       <x:c r="E3" s="24"/>
       <x:c r="F3" s="24"/>
       <x:c r="G3" s="24"/>
       <x:c r="H3" s="26" t="s">
-        <x:v>5</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I3" s="26"/>
       <x:c r="J3" s="29" t="s">
-        <x:v>3</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K3" s="30"/>
       <x:c r="L3" s="19"/>
     </x:row>
     <x:row r="4" spans="2:12" customHeight="1">
       <x:c r="B4" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C4" s="21" t="s">
-        <x:v>59</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="21"/>
       <x:c r="E4" s="21"/>
@@ -3355,37 +3355,37 @@
     </x:row>
     <x:row r="5" spans="2:12" customHeight="1">
       <x:c r="B5" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C5" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D5" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F5" s="5" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I5" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J5" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L5" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:12" customHeight="1">
@@ -3393,22 +3393,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I6" s="3"/>
       <x:c r="J6" s="3"/>
@@ -3420,19 +3420,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="12" t="s">
-        <x:v>14</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D7" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E7" s="12" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F7" s="12" t="s">
-        <x:v>51</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G7" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H7" s="12"/>
       <x:c r="I7" s="12"/>
@@ -3445,19 +3445,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="12" t="s">
-        <x:v>38</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D8" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E8" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F8" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G8" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H8" s="12"/>
       <x:c r="I8" s="12"/>
@@ -3473,16 +3473,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D9" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E9" s="12" t="s">
-        <x:v>61</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F9" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G9" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="12"/>
       <x:c r="I9" s="12"/>
@@ -3495,19 +3495,19 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F10" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G10" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H10" s="12"/>
       <x:c r="I10" s="12"/>
@@ -3520,19 +3520,19 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="12" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E11" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F11" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G11" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H11" s="12"/>
       <x:c r="I11" s="12"/>
@@ -3545,19 +3545,19 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="12" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E12" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F12" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G12" s="12" t="s">
-        <x:v>50</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H12" s="12"/>
       <x:c r="I12" s="12"/>
